--- a/output/carin-rtpbc-medicationrequest.xlsx
+++ b/output/carin-rtpbc-medicationrequest.xlsx
@@ -11475,7 +11475,7 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="X83" t="s" s="2">
         <v>503</v>
@@ -11771,7 +11771,7 @@
         <v>523</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>52</v>
